--- a/experiment_templates/experimentTemplate.xlsx
+++ b/experiment_templates/experimentTemplate.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/agilent_methods/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/experiment_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434B802-2AFE-F746-A618-415685DF5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2ECB36-E803-EB41-9EA5-E33BD2ED8DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-4640" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="rf_params" sheetId="2" r:id="rId2"/>
+    <sheet name="data_analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="134">
   <si>
     <t>Well</t>
   </si>
@@ -378,6 +379,51 @@
   </si>
   <si>
     <t>2023-03-02_dodd_4Bit_NEG.m</t>
+  </si>
+  <si>
+    <t>tuneIons_file</t>
+  </si>
+  <si>
+    <t>sky_imsdb_file</t>
+  </si>
+  <si>
+    <t>sky_document_file</t>
+  </si>
+  <si>
+    <t>transition_list_file</t>
+  </si>
+  <si>
+    <t>sky_report_file</t>
+  </si>
+  <si>
+    <t>D:\gkreder\RapidSky\transition_lists\agilentTuneRestrictedDeimos_transitionList.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\RapidSky\skyline_documents\ymdb.imsdb</t>
+  </si>
+  <si>
+    <t>D:\gkreder\RapidSky\skyline_documents\ymdb_IMres30.sky</t>
+  </si>
+  <si>
+    <t>D:\gkreder\RapidSky\transition_lists\ymdb_transition_list.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\RapidSky\report_templates\MoleculeReportShort.skyr</t>
+  </si>
+  <si>
+    <t>CSV file containing m/z and CCS values for target ions to perform CCS calibration. Must contain columns "Precursor Charge (e.g. 1 or -1)", "Precorsor m/z", and "CCS"</t>
+  </si>
+  <si>
+    <t>Skyline file containing ion mobility database (built in and exported from Skyline GUI)</t>
+  </si>
+  <si>
+    <t>Skyline document template for performing analysis (built in and exported from Skyline GUI)</t>
+  </si>
+  <si>
+    <t>Skyline input transition list</t>
+  </si>
+  <si>
+    <t>Skyline output molecule report template (built in and exported from Skyline GUI)</t>
   </si>
 </sst>
 </file>
@@ -867,9 +913,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1227,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4822,7 +4869,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5123,4 +5170,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C400BD2-9032-0545-AFFE-3416A85EA8CF}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiment_templates/experimentTemplate.xlsx
+++ b/experiment_templates/experimentTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/experiment_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2ECB36-E803-EB41-9EA5-E33BD2ED8DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFB6D1-7540-FD4B-8FAA-58D1BC3914CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-4640" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -396,21 +396,6 @@
     <t>sky_report_file</t>
   </si>
   <si>
-    <t>D:\gkreder\RapidSky\transition_lists\agilentTuneRestrictedDeimos_transitionList.csv</t>
-  </si>
-  <si>
-    <t>D:\gkreder\RapidSky\skyline_documents\ymdb.imsdb</t>
-  </si>
-  <si>
-    <t>D:\gkreder\RapidSky\skyline_documents\ymdb_IMres30.sky</t>
-  </si>
-  <si>
-    <t>D:\gkreder\RapidSky\transition_lists\ymdb_transition_list.csv</t>
-  </si>
-  <si>
-    <t>D:\gkreder\RapidSky\report_templates\MoleculeReportShort.skyr</t>
-  </si>
-  <si>
     <t>CSV file containing m/z and CCS values for target ions to perform CCS calibration. Must contain columns "Precursor Charge (e.g. 1 or -1)", "Precorsor m/z", and "CCS"</t>
   </si>
   <si>
@@ -424,6 +409,21 @@
   </si>
   <si>
     <t>Skyline output molecule report template (built in and exported from Skyline GUI)</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\transition_lists\agilentTuneRestrictedDeimos_transitionList.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\skyline_documents\ymdb.imsdb</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\skyline_documents\ymdb_IMres30.sky</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\transition_lists\ymdb_transition_list.csv</t>
+  </si>
+  <si>
+    <t>D:\gkreder\autonoms\report_templates\MoleculeReportShort.skyr</t>
   </si>
 </sst>
 </file>
@@ -913,10 +913,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5198,10 +5197,10 @@
         <v>119</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5209,10 +5208,10 @@
         <v>120</v>
       </c>
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5220,10 +5219,10 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5231,10 +5230,10 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>127</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5242,10 +5241,10 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
